--- a/Elementplan.xlsx
+++ b/Elementplan.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MichalRontsinsky\Downloads\CAS_HSLU\Anwendung_CAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528311F7-E8F5-423E-B4E6-CD0824566CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D753B62D-5BD4-4FB6-ACC0-F2D111ADE15D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8550" yWindow="-19065" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Objektkatalog" sheetId="1" r:id="rId1"/>
     <sheet name="Attributsliste" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Attributsliste!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Objektkatalog!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>IfcClass</t>
   </si>
@@ -80,13 +84,19 @@
   </si>
   <si>
     <t>IfcElement</t>
+  </si>
+  <si>
+    <t>Pset_SlabCommon</t>
+  </si>
+  <si>
+    <t>IsExternal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +104,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -115,8 +139,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -399,25 +424,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
@@ -444,32 +469,35 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D1E13C-70E6-4C25-98A7-8A218D21519F}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -528,7 +556,19 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:C1" xr:uid="{B0D1E13C-70E6-4C25-98A7-8A218D21519F}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>